--- a/Population/Manual_Population_data_collection.xlsx
+++ b/Population/Manual_Population_data_collection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://1sfu-my.sharepoint.com/personal/bsg13_sfu_ca/Documents/SFU Classes/CMPT 353/Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birfa\Desktop\Git_Folders\Climate_Change_Project_CMPT353\Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{9E305742-907F-47B8-87C1-4585D1BECFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5863D088-6110-4A56-AD20-95F0239A0927}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A5EA5B-564E-444B-9512-357FBE2604B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3570" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="480" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="16">
   <si>
     <t>Fredericton</t>
   </si>
@@ -159,10 +159,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,25 +498,25 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>1996</v>
-      </c>
-      <c r="C6" s="3">
-        <v>616306</v>
+        <v>2016</v>
+      </c>
+      <c r="C6" s="4">
+        <v>58721</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>2001</v>
-      </c>
-      <c r="C7" s="3">
-        <v>666104</v>
+        <v>2021</v>
+      </c>
+      <c r="C7" s="4">
+        <v>63116</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -529,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="C8" s="3">
-        <v>730372</v>
+        <v>616306</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -541,510 +537,739 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>2011</v>
-      </c>
-      <c r="C9" s="4">
-        <v>812201</v>
+        <v>2001</v>
+      </c>
+      <c r="C9" s="3">
+        <v>666104</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>1996</v>
+        <v>2006</v>
       </c>
       <c r="C10" s="3">
-        <v>73504</v>
+        <v>730372</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>2001</v>
-      </c>
-      <c r="C11" s="3">
-        <v>74125</v>
+        <v>2011</v>
+      </c>
+      <c r="C11" s="4">
+        <v>812201</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C12" s="3">
-        <v>78057</v>
+        <v>2016</v>
+      </c>
+      <c r="C12" s="4">
+        <v>932546</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>2011</v>
-      </c>
-      <c r="C13" s="3">
-        <v>80017</v>
+        <v>2021</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1010899</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="C14" s="3">
-        <v>616790</v>
+        <v>73504</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
         <v>2001</v>
       </c>
       <c r="C15" s="3">
-        <v>619544</v>
+        <v>74125</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C16" s="3">
-        <v>663617</v>
+        <v>78057</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>1996</v>
+        <v>2011</v>
       </c>
       <c r="C17" s="3">
-        <v>101936</v>
+        <v>80017</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>2001</v>
+        <v>2016</v>
       </c>
       <c r="C18" s="3">
-        <v>99182</v>
+        <v>85792</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2">
-        <v>2006</v>
+        <v>2021</v>
       </c>
       <c r="C19" s="3">
-        <v>100646</v>
+        <v>91867</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="2">
-        <v>2011</v>
+        <v>1991</v>
       </c>
       <c r="C20" s="3">
-        <v>106172</v>
+        <v>616790</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1996</v>
-      </c>
-      <c r="C21" s="5">
-        <v>342966</v>
+        <v>3</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C21" s="3">
+        <v>619544</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2001</v>
-      </c>
-      <c r="C22" s="5">
-        <v>359183</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C22" s="3">
+        <v>663617</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2006</v>
-      </c>
-      <c r="C23" s="5">
-        <v>372858</v>
+        <v>3</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C23" s="3">
+        <v>749607</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2011</v>
-      </c>
-      <c r="C24" s="5">
-        <v>390328</v>
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1996</v>
+      </c>
+      <c r="C24" s="3">
+        <v>101936</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="C25" s="3">
-        <v>2385421</v>
+        <v>99182</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="C26" s="3">
-        <v>2481494</v>
+        <v>100646</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="C27" s="3">
-        <v>2503281</v>
+        <v>106172</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C28" s="3">
-        <v>2615060</v>
+        <v>108860</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>1996</v>
+        <v>2021</v>
       </c>
       <c r="C29" s="3">
-        <v>32531</v>
+        <v>110525</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2">
-        <v>2001</v>
-      </c>
-      <c r="C30" s="3">
-        <v>32245</v>
+        <v>5</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C30" s="5">
+        <v>342966</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C31" s="3">
-        <v>32174</v>
+        <v>5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C31" s="5">
+        <v>359183</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="2">
-        <v>2011</v>
-      </c>
-      <c r="C32" s="3">
-        <v>34562</v>
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C32" s="5">
+        <v>372858</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1996</v>
-      </c>
-      <c r="C33" s="4">
-        <v>167264</v>
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C33" s="5">
+        <v>390328</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2001</v>
-      </c>
-      <c r="C34" s="3">
-        <v>169076</v>
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C34" s="5">
+        <v>403131</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C35" s="3">
-        <v>491142</v>
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C35" s="5">
+        <v>439819</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" s="2">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="C36" s="3">
-        <v>516622</v>
+        <v>2385421</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2">
-        <v>1996</v>
-      </c>
-      <c r="C37" s="4">
-        <v>180404</v>
+        <v>2001</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2481494</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B38" s="2">
-        <v>2001</v>
-      </c>
-      <c r="C38" s="4">
-        <v>178225</v>
+        <v>2006</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2503281</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B39" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C39" s="4">
-        <v>179246</v>
+        <v>2011</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2615060</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2">
-        <v>2011</v>
-      </c>
-      <c r="C40" s="4">
-        <v>193100</v>
+        <v>2016</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2731571</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C41" s="4">
-        <v>781926</v>
+        <v>6</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2794356</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="6">
-        <v>2010</v>
-      </c>
-      <c r="C42" s="4">
-        <v>820445</v>
+        <v>7</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1996</v>
+      </c>
+      <c r="C42" s="3">
+        <v>32531</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="6">
-        <v>2020</v>
-      </c>
-      <c r="C43" s="4">
-        <v>887642</v>
+        <v>7</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C43" s="3">
+        <v>32245</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C44" s="4">
-        <v>227818</v>
+        <v>7</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C44" s="3">
+        <v>32174</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="6">
-        <v>2010</v>
-      </c>
-      <c r="C45" s="4">
-        <v>229493</v>
+        <v>7</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C45" s="3">
+        <v>34562</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="6">
-        <v>2020</v>
-      </c>
-      <c r="C46" s="4">
-        <v>227470</v>
+        <v>7</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C46" s="3">
+        <v>36094</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C47" s="4">
-        <v>545524</v>
+        <v>7</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="3">
+        <v>38809</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1996</v>
+      </c>
+      <c r="C48" s="4">
+        <v>167264</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C49" s="3">
+        <v>169076</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C50" s="3">
+        <v>491142</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C51" s="3">
+        <v>516622</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C52" s="3">
+        <v>531902</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C53" s="3">
+        <v>549459</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1996</v>
+      </c>
+      <c r="C54" s="4">
+        <v>180404</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C55" s="4">
+        <v>178225</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C56" s="4">
+        <v>179246</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C57" s="4">
+        <v>193100</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C58" s="4">
+        <v>215106</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C59" s="4">
+        <v>226404</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C60" s="4">
+        <v>781926</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="6">
+        <v>2010</v>
+      </c>
+      <c r="C61" s="4">
+        <v>820445</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C62" s="4">
+        <v>887642</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C63" s="4">
+        <v>227818</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="6">
+        <v>2010</v>
+      </c>
+      <c r="C64" s="4">
+        <v>229493</v>
+      </c>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C65" s="4">
+        <v>227470</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B66" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C66" s="4">
+        <v>545524</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="6">
         <v>2010</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C67" s="4">
         <v>601222</v>
       </c>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B68" s="2">
         <v>2020</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C68" s="3">
         <v>689447</v>
       </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" tooltip="2000 United States census" display="https://en.wikipedia.org/wiki/2000_United_States_census" xr:uid="{726FFB01-812C-4587-945A-1CA1E13D1B91}"/>
-    <hyperlink ref="B42" r:id="rId2" tooltip="2010 United States census" display="https://en.wikipedia.org/wiki/2010_United_States_census" xr:uid="{58A9EFE2-9CBF-4C2A-8954-483B1D1AC73D}"/>
-    <hyperlink ref="B44" r:id="rId3" tooltip="2000 United States census" display="https://en.wikipedia.org/wiki/2000_United_States_census" xr:uid="{66F5A81B-97F3-4D75-9026-4A1FB4102725}"/>
-    <hyperlink ref="B46" r:id="rId4" tooltip="2010 United States census" display="https://en.wikipedia.org/wiki/2010_United_States_census" xr:uid="{4A14FCC7-A1F9-4EB8-88C2-C55944F38DE4}"/>
-    <hyperlink ref="B47" r:id="rId5" tooltip="2000 United States census" display="https://en.wikipedia.org/wiki/2000_United_States_census" xr:uid="{C2A89F1B-7FAA-4B49-B8FF-88AC8208A169}"/>
-    <hyperlink ref="B48" r:id="rId6" tooltip="2010 United States census" display="https://en.wikipedia.org/wiki/2010_United_States_census" xr:uid="{55851167-37C1-4ADB-AF56-334317A402B8}"/>
-    <hyperlink ref="B45" r:id="rId7" tooltip="2010 United States census" display="https://en.wikipedia.org/wiki/2010_United_States_census" xr:uid="{4997F76E-1D6C-41EE-8665-D3DA09E26C2B}"/>
+    <hyperlink ref="B60" r:id="rId1" tooltip="2000 United States census" display="https://en.wikipedia.org/wiki/2000_United_States_census" xr:uid="{726FFB01-812C-4587-945A-1CA1E13D1B91}"/>
+    <hyperlink ref="B61" r:id="rId2" tooltip="2010 United States census" display="https://en.wikipedia.org/wiki/2010_United_States_census" xr:uid="{58A9EFE2-9CBF-4C2A-8954-483B1D1AC73D}"/>
+    <hyperlink ref="B63" r:id="rId3" tooltip="2000 United States census" display="https://en.wikipedia.org/wiki/2000_United_States_census" xr:uid="{66F5A81B-97F3-4D75-9026-4A1FB4102725}"/>
+    <hyperlink ref="B65" r:id="rId4" tooltip="2010 United States census" display="https://en.wikipedia.org/wiki/2010_United_States_census" xr:uid="{4A14FCC7-A1F9-4EB8-88C2-C55944F38DE4}"/>
+    <hyperlink ref="B66" r:id="rId5" tooltip="2000 United States census" display="https://en.wikipedia.org/wiki/2000_United_States_census" xr:uid="{C2A89F1B-7FAA-4B49-B8FF-88AC8208A169}"/>
+    <hyperlink ref="B67" r:id="rId6" tooltip="2010 United States census" display="https://en.wikipedia.org/wiki/2010_United_States_census" xr:uid="{55851167-37C1-4ADB-AF56-334317A402B8}"/>
+    <hyperlink ref="B64" r:id="rId7" tooltip="2010 United States census" display="https://en.wikipedia.org/wiki/2010_United_States_census" xr:uid="{4997F76E-1D6C-41EE-8665-D3DA09E26C2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>